--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -494,20 +494,16 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.2215798187571697</v>
-      </c>
-      <c r="C2" t="n">
-        <v>93.46384591405565</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>1.67876264938883</v>
+        <v>3.725456790924072</v>
       </c>
       <c r="E2" t="n">
-        <v>70.32643312101911</v>
+        <v>3.28125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005885732533479692</v>
+        <v>0.001003445363556912</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -516,33 +512,29 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.222646206166017e-05</v>
+        <v>0.001775234726149018</v>
       </c>
       <c r="J2" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K2" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.1012439901281015</v>
-      </c>
-      <c r="C3" t="n">
-        <v>97.0011097266466</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1.017312614980397</v>
+        <v>3.631368689537048</v>
       </c>
       <c r="E3" t="n">
-        <v>78.74601910828025</v>
+        <v>6.3125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005883007983208641</v>
+        <v>0.001049899678333593</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -551,33 +543,29 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.995916485692538e-05</v>
+        <v>0.001610158272848937</v>
       </c>
       <c r="J3" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K3" t="n">
-        <v>1640280</v>
+        <v>2688370190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.07036480014901902</v>
-      </c>
-      <c r="C4" t="n">
-        <v>97.88963398186699</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.6895922599941682</v>
+        <v>5.378718404769897</v>
       </c>
       <c r="E4" t="n">
-        <v>82.39848726114649</v>
+        <v>11.59375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005835812985050128</v>
+        <v>0.001011367107055272</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -586,33 +574,29 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7.954032507577661e-05</v>
+        <v>0.001621207876398333</v>
       </c>
       <c r="J4" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K4" t="n">
-        <v>1640280</v>
+        <v>2688370190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.05334362645131283</v>
-      </c>
-      <c r="C5" t="n">
-        <v>98.31730113658801</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.4607616476667156</v>
+        <v>4.131519250869751</v>
       </c>
       <c r="E5" t="n">
-        <v>86.62221337579618</v>
+        <v>8.96875</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005866699019619043</v>
+        <v>0.001025283046067003</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -621,33 +605,29 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7.978460108284374e-05</v>
+        <v>0.001620281963539856</v>
       </c>
       <c r="J5" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K5" t="n">
-        <v>1640280</v>
+        <v>2688370190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.04624827375483287</v>
-      </c>
-      <c r="C6" t="n">
-        <v>98.56049774060406</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0.3437511149271848</v>
+        <v>3.701190958023072</v>
       </c>
       <c r="E6" t="n">
-        <v>88.84156050955414</v>
+        <v>9.8125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005865087669128914</v>
+        <v>0.001024549854045276</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -656,33 +636,29 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.83959389289589e-05</v>
+        <v>0.001623169430067061</v>
       </c>
       <c r="J6" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K6" t="n">
-        <v>1640280</v>
+        <v>2688370190</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.03573640240247235</v>
-      </c>
-      <c r="C7" t="n">
-        <v>98.85903573558569</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0.410487685945763</v>
+        <v>3.804147024154664</v>
       </c>
       <c r="E7" t="n">
-        <v>88.04140127388534</v>
+        <v>12.15625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005906473595214171</v>
+        <v>0.001030316677601327</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -691,33 +667,29 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.047029124902828e-05</v>
+        <v>0.001617854439555305</v>
       </c>
       <c r="J7" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K7" t="n">
-        <v>1640280</v>
+        <v>2688370190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.03170067522050633</v>
-      </c>
-      <c r="C8" t="n">
-        <v>99.01636168014387</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0.3403774050722836</v>
+        <v>3.733720240592957</v>
       </c>
       <c r="E8" t="n">
-        <v>89.73925159235668</v>
+        <v>14.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005871130244284022</v>
+        <v>0.001037400334252227</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -726,33 +698,29 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.810675420752638e-05</v>
+        <v>0.001630584680774612</v>
       </c>
       <c r="J8" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K8" t="n">
-        <v>1640280</v>
+        <v>2688370190</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.02743219729395792</v>
-      </c>
-      <c r="C9" t="n">
-        <v>99.15890021107148</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0.3455065695631205</v>
+        <v>4.163091101646423</v>
       </c>
       <c r="E9" t="n">
-        <v>89.97213375796179</v>
+        <v>16.46875</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005866284490967712</v>
+        <v>0.00104191060331795</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -761,33 +729,29 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.813010319393105e-05</v>
+        <v>0.001587273485042671</v>
       </c>
       <c r="J9" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K9" t="n">
-        <v>1640280</v>
+        <v>2688370190</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.02543907919776617</v>
-      </c>
-      <c r="C10" t="n">
-        <v>99.19003343474375</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0.3080252427963694</v>
+        <v>4.520319900512695</v>
       </c>
       <c r="E10" t="n">
-        <v>90.9375</v>
+        <v>14.6875</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005898268349462542</v>
+        <v>0.0009894146587874865</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -796,33 +760,29 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7.686179169344913e-05</v>
+        <v>0.001590276171879769</v>
       </c>
       <c r="J10" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K10" t="n">
-        <v>1640280</v>
+        <v>2688370190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.02323108832539102</v>
-      </c>
-      <c r="C11" t="n">
-        <v>99.25149340889763</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0.3378859402588124</v>
+        <v>4.039119129180908</v>
       </c>
       <c r="E11" t="n">
-        <v>90.25477707006368</v>
+        <v>19.375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005883588645631898</v>
+        <v>0.0009617729734368104</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -831,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.280741397889948e-05</v>
+        <v>0.001574643945476784</v>
       </c>
       <c r="J11" t="n">
-        <v>1640280</v>
+        <v>2688377550</v>
       </c>
       <c r="K11" t="n">
-        <v>1640280</v>
+        <v>2688370190</v>
       </c>
     </row>
   </sheetData>
